--- a/Daily Collection/February-2021-Collection.xlsx
+++ b/Daily Collection/February-2021-Collection.xlsx
@@ -45,6 +45,29 @@
         </r>
       </text>
     </comment>
+    <comment ref="H48" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+2000-Cash
+2000-Digital</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G53" authorId="0">
       <text>
         <r>
@@ -556,8 +579,8 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
@@ -579,7 +602,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,7 +617,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,9 +639,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -616,7 +684,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -626,37 +694,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -676,15 +713,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -698,35 +737,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -765,7 +788,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,73 +938,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,97 +968,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,6 +979,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1016,6 +1054,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1030,38 +1079,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1079,130 +1102,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1591,11 +1614,11 @@
   <dimension ref="A1:AO110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G78" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I48" sqref="I48"/>
+      <selection pane="bottomRight" activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1726,14 +1749,14 @@
       <c r="C2" s="7"/>
       <c r="D2" s="8">
         <f>SUM(F3:F121)</f>
-        <v>58700</v>
+        <v>95900</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="8">
         <f>SUM(G2:AK2)</f>
-        <v>58700</v>
+        <v>95900</v>
       </c>
       <c r="G2" s="2">
         <f>SUM(G3:G121)</f>
@@ -1741,7 +1764,7 @@
       </c>
       <c r="H2" s="2">
         <f>SUM(H3:H121)</f>
-        <v>0</v>
+        <v>37200</v>
       </c>
       <c r="I2" s="2">
         <f>SUM(I3:I121)</f>
@@ -2367,10 +2390,12 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="H12" s="4">
+        <v>1500</v>
+      </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -2476,12 +2501,14 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="G14" s="4">
         <v>4500</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="4">
+        <v>2000</v>
+      </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -2648,10 +2675,12 @@
       </c>
       <c r="F17" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="H17" s="4">
+        <v>1000</v>
+      </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -2813,10 +2842,12 @@
       </c>
       <c r="F20" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="H20" s="4">
+        <v>1000</v>
+      </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -3252,12 +3283,14 @@
       </c>
       <c r="F28" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G28" s="4">
         <v>1000</v>
       </c>
-      <c r="H28" s="4"/>
+      <c r="H28" s="4">
+        <v>1000</v>
+      </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -3307,10 +3340,12 @@
       </c>
       <c r="F29" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
+      <c r="H29" s="4">
+        <v>5500</v>
+      </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -3620,10 +3655,12 @@
       </c>
       <c r="F35" s="1">
         <f t="shared" ref="F35:F67" si="2">SUM(G35:AK35)</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+      <c r="H35" s="11">
+        <v>3000</v>
+      </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -3934,10 +3971,12 @@
       </c>
       <c r="F41" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
+      <c r="H41" s="4">
+        <v>1500</v>
+      </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -4137,10 +4176,12 @@
       </c>
       <c r="F45" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
+      <c r="H45" s="4">
+        <v>3000</v>
+      </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -4296,10 +4337,12 @@
       </c>
       <c r="F48" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
+      <c r="H48" s="11">
+        <v>4000</v>
+      </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -4666,10 +4709,12 @@
       </c>
       <c r="F55" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
+      <c r="H55" s="4">
+        <v>2000</v>
+      </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -4769,10 +4814,12 @@
       </c>
       <c r="F57" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
+      <c r="H57" s="4">
+        <v>2000</v>
+      </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -4988,10 +5035,12 @@
       </c>
       <c r="F61" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
+      <c r="H61" s="4">
+        <v>1500</v>
+      </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
@@ -5454,10 +5503,12 @@
       </c>
       <c r="F70" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
+      <c r="H70" s="4">
+        <v>1200</v>
+      </c>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
@@ -6559,10 +6610,12 @@
       </c>
       <c r="F92" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
+      <c r="H92" s="4">
+        <v>5000</v>
+      </c>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
@@ -6762,10 +6815,12 @@
       </c>
       <c r="F96" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
+      <c r="H96" s="11">
+        <v>2000</v>
+      </c>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>

--- a/Daily Collection/February-2021-Collection.xlsx
+++ b/Daily Collection/February-2021-Collection.xlsx
@@ -577,10 +577,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
@@ -600,66 +600,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -675,6 +615,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -684,10 +670,47 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -700,40 +723,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -788,7 +788,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,13 +842,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,19 +866,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,7 +884,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,7 +896,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,19 +914,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,7 +926,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,73 +962,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,6 +979,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1015,36 +1045,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1065,17 +1065,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1084,13 +1084,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1102,130 +1102,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1614,11 +1614,11 @@
   <dimension ref="A1:AO110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G12" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H96" sqref="H96"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1749,14 +1749,14 @@
       <c r="C2" s="7"/>
       <c r="D2" s="8">
         <f>SUM(F3:F121)</f>
-        <v>95900</v>
+        <v>128200</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="8">
         <f>SUM(G2:AK2)</f>
-        <v>95900</v>
+        <v>128200</v>
       </c>
       <c r="G2" s="2">
         <f>SUM(G3:G121)</f>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="I2" s="2">
         <f>SUM(I3:I121)</f>
-        <v>0</v>
+        <v>32300</v>
       </c>
       <c r="J2" s="2">
         <f>SUM(J3:J121)</f>
@@ -2002,13 +2002,15 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="G5" s="4">
         <v>2500</v>
       </c>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="I5" s="4">
+        <v>2000</v>
+      </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -2060,13 +2062,15 @@
       </c>
       <c r="F6" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G6" s="11">
         <v>3000</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="I6" s="11">
+        <v>2000</v>
+      </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -2171,11 +2175,13 @@
       </c>
       <c r="F8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="I8" s="4">
+        <v>2000</v>
+      </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -2390,13 +2396,15 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4">
         <v>1500</v>
       </c>
-      <c r="I12" s="4"/>
+      <c r="I12" s="4">
+        <v>500</v>
+      </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2501,7 +2509,7 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="G14" s="4">
         <v>4500</v>
@@ -2509,7 +2517,9 @@
       <c r="H14" s="4">
         <v>2000</v>
       </c>
-      <c r="I14" s="4"/>
+      <c r="I14" s="4">
+        <v>2000</v>
+      </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2617,13 +2627,15 @@
       </c>
       <c r="F16" s="1">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="G16" s="11">
         <v>1200</v>
       </c>
       <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="I16" s="4">
+        <v>1000</v>
+      </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -2953,13 +2965,15 @@
       </c>
       <c r="F22" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G22" s="4">
         <v>1000</v>
       </c>
       <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="I22" s="4">
+        <v>1000</v>
+      </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -3011,11 +3025,13 @@
       </c>
       <c r="F23" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="I23" s="4">
+        <v>3000</v>
+      </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
@@ -3177,11 +3193,13 @@
       </c>
       <c r="F26" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="I26" s="4">
+        <v>1500</v>
+      </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
@@ -3500,13 +3518,15 @@
       </c>
       <c r="F32" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G32" s="4">
         <v>1000</v>
       </c>
       <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
+      <c r="I32" s="4">
+        <v>1000</v>
+      </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
@@ -3552,11 +3572,13 @@
       </c>
       <c r="F33" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
+      <c r="I33" s="4">
+        <v>1000</v>
+      </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
@@ -3605,11 +3627,13 @@
       </c>
       <c r="F34" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
+      <c r="I34" s="4">
+        <v>1500</v>
+      </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
@@ -3760,11 +3784,13 @@
       </c>
       <c r="F37" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
+      <c r="I37" s="11">
+        <v>3000</v>
+      </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
@@ -4123,11 +4149,13 @@
       </c>
       <c r="F44" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
+      <c r="I44" s="4">
+        <v>3000</v>
+      </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -4395,11 +4423,13 @@
       </c>
       <c r="F49" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
+      <c r="I49" s="11">
+        <v>3000</v>
+      </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
@@ -4551,11 +4581,13 @@
       </c>
       <c r="F52" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
+      <c r="I52" s="11">
+        <v>1000</v>
+      </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
@@ -5341,11 +5373,13 @@
       </c>
       <c r="F67" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
+      <c r="I67" s="4">
+        <v>3000</v>
+      </c>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
@@ -5503,13 +5537,15 @@
       </c>
       <c r="F70" s="1">
         <f t="shared" si="3"/>
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4">
         <v>1200</v>
       </c>
-      <c r="I70" s="4"/>
+      <c r="I70" s="4">
+        <v>800</v>
+      </c>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>

--- a/Daily Collection/February-2021-Collection.xlsx
+++ b/Daily Collection/February-2021-Collection.xlsx
@@ -577,10 +577,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
@@ -600,23 +600,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,7 +610,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,9 +630,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,16 +653,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -677,60 +707,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -744,12 +722,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -788,7 +788,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,79 +944,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,91 +968,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,17 +982,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1012,26 +1023,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1048,34 +1050,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1084,7 +1084,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1105,127 +1105,127 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1614,11 +1614,11 @@
   <dimension ref="A1:AO110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1749,14 +1749,14 @@
       <c r="C2" s="7"/>
       <c r="D2" s="8">
         <f>SUM(F3:F121)</f>
-        <v>128200</v>
+        <v>192800</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="8">
         <f>SUM(G2:AK2)</f>
-        <v>128200</v>
+        <v>192800</v>
       </c>
       <c r="G2" s="2">
         <f>SUM(G3:G121)</f>
@@ -1764,15 +1764,15 @@
       </c>
       <c r="H2" s="2">
         <f>SUM(H3:H121)</f>
-        <v>37200</v>
+        <v>37820</v>
       </c>
       <c r="I2" s="2">
         <f>SUM(I3:I121)</f>
-        <v>32300</v>
+        <v>37300</v>
       </c>
       <c r="J2" s="2">
         <f>SUM(J3:J121)</f>
-        <v>0</v>
+        <v>58980</v>
       </c>
       <c r="K2" s="2">
         <f>SUM(K3:K121)</f>
@@ -2122,12 +2122,16 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="H7" s="11">
+        <v>620</v>
+      </c>
       <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="J7" s="11">
+        <v>7380</v>
+      </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -2453,12 +2457,14 @@
       </c>
       <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="J13" s="4">
+        <v>5000</v>
+      </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -2509,7 +2515,7 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="G14" s="4">
         <v>4500</v>
@@ -2520,7 +2526,9 @@
       <c r="I14" s="4">
         <v>2000</v>
       </c>
-      <c r="J14" s="4"/>
+      <c r="J14" s="4">
+        <v>2000</v>
+      </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -2745,12 +2753,14 @@
       </c>
       <c r="F18" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="J18" s="11">
+        <v>5000</v>
+      </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
@@ -3083,14 +3093,16 @@
       </c>
       <c r="F24" s="1">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G24" s="11">
         <v>5000</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="J24" s="11">
+        <v>5000</v>
+      </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
@@ -3193,14 +3205,16 @@
       </c>
       <c r="F26" s="1">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4">
         <v>1500</v>
       </c>
-      <c r="J26" s="4"/>
+      <c r="J26" s="4">
+        <v>1000</v>
+      </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
@@ -3248,12 +3262,14 @@
       </c>
       <c r="F27" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="J27" s="4">
+        <v>2000</v>
+      </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -3518,7 +3534,7 @@
       </c>
       <c r="F32" s="1">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G32" s="4">
         <v>1000</v>
@@ -3527,7 +3543,9 @@
       <c r="I32" s="4">
         <v>1000</v>
       </c>
-      <c r="J32" s="4"/>
+      <c r="J32" s="4">
+        <v>1000</v>
+      </c>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
@@ -3679,14 +3697,16 @@
       </c>
       <c r="F35" s="1">
         <f t="shared" ref="F35:F67" si="2">SUM(G35:AK35)</f>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="11">
         <v>3000</v>
       </c>
       <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+      <c r="J35" s="11">
+        <v>3000</v>
+      </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
@@ -3997,14 +4017,16 @@
       </c>
       <c r="F41" s="1">
         <f t="shared" si="2"/>
-        <v>1500</v>
+        <v>4500</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4">
         <v>1500</v>
       </c>
       <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
+      <c r="J41" s="4">
+        <v>3000</v>
+      </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
@@ -4256,12 +4278,14 @@
       </c>
       <c r="F46" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
+      <c r="J46" s="4">
+        <v>2100</v>
+      </c>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
@@ -4423,14 +4447,16 @@
       </c>
       <c r="F49" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="11">
         <v>3000</v>
       </c>
-      <c r="J49" s="4"/>
+      <c r="J49" s="11">
+        <v>3000</v>
+      </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
@@ -5119,12 +5145,14 @@
       </c>
       <c r="F62" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
+      <c r="J62" s="4">
+        <v>4000</v>
+      </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
@@ -5271,12 +5299,14 @@
       </c>
       <c r="F65" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
+      <c r="J65" s="4">
+        <v>1000</v>
+      </c>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
@@ -5321,14 +5351,16 @@
       </c>
       <c r="F66" s="1">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G66" s="4">
         <v>5000</v>
       </c>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
+      <c r="J66" s="4">
+        <v>5000</v>
+      </c>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
@@ -5481,12 +5513,14 @@
       </c>
       <c r="F69" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
+      <c r="J69" s="4">
+        <v>1000</v>
+      </c>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
@@ -5537,7 +5571,7 @@
       </c>
       <c r="F70" s="1">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4">
@@ -5546,7 +5580,9 @@
       <c r="I70" s="4">
         <v>800</v>
       </c>
-      <c r="J70" s="4"/>
+      <c r="J70" s="4">
+        <v>1000</v>
+      </c>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
@@ -5594,12 +5630,14 @@
       </c>
       <c r="F71" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
+      <c r="J71" s="11">
+        <v>6000</v>
+      </c>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
@@ -5647,14 +5685,16 @@
       </c>
       <c r="F72" s="1">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G72" s="4">
         <v>2000</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
+      <c r="J72" s="4">
+        <v>1500</v>
+      </c>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
@@ -6210,11 +6250,13 @@
       </c>
       <c r="F83" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
+      <c r="I83" s="11">
+        <v>5000</v>
+      </c>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>

--- a/Daily Collection/February-2021-Collection.xlsx
+++ b/Daily Collection/February-2021-Collection.xlsx
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="158">
   <si>
     <t>S.No.</t>
   </si>
@@ -577,10 +577,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
@@ -597,6 +597,120 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -624,13 +738,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -638,118 +745,11 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -788,7 +788,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,13 +926,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,7 +938,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,43 +950,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,97 +962,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,6 +979,78 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1007,90 +1079,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1102,130 +1102,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1618,7 +1618,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1749,14 +1749,14 @@
       <c r="C2" s="7"/>
       <c r="D2" s="8">
         <f>SUM(F3:F121)</f>
-        <v>192800</v>
+        <v>259700</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="8">
         <f>SUM(G2:AK2)</f>
-        <v>192800</v>
+        <v>259700</v>
       </c>
       <c r="G2" s="2">
         <f>SUM(G3:G121)</f>
@@ -1776,11 +1776,11 @@
       </c>
       <c r="K2" s="2">
         <f>SUM(K3:K121)</f>
-        <v>0</v>
+        <v>26900</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" ref="L2:AK2" si="0">SUM(L3:L121)</f>
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="M2" s="2">
         <f t="shared" si="0"/>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="G5" s="4">
         <v>2500</v>
@@ -2012,7 +2012,9 @@
         <v>2000</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="K5" s="4">
+        <v>2000</v>
+      </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -2289,7 +2291,7 @@
       </c>
       <c r="F10" s="1">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G10" s="4">
         <v>5000</v>
@@ -2297,7 +2299,9 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="K10" s="4">
+        <v>5000</v>
+      </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -2400,7 +2404,7 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4">
@@ -2410,7 +2414,9 @@
         <v>500</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="K12" s="4">
+        <v>1000</v>
+      </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -2515,7 +2521,7 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="G14" s="4">
         <v>4500</v>
@@ -2529,7 +2535,9 @@
       <c r="J14" s="4">
         <v>2000</v>
       </c>
-      <c r="K14" s="4"/>
+      <c r="K14" s="4">
+        <v>2000</v>
+      </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -2753,7 +2761,7 @@
       </c>
       <c r="F18" s="1">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -2762,7 +2770,9 @@
         <v>5000</v>
       </c>
       <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="L18" s="11">
+        <v>5000</v>
+      </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -2811,13 +2821,15 @@
       </c>
       <c r="F19" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="K19" s="4">
+        <v>2000</v>
+      </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -2864,7 +2876,7 @@
       </c>
       <c r="F20" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4">
@@ -2873,7 +2885,9 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="L20" s="4">
+        <v>1000</v>
+      </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -3035,7 +3049,7 @@
       </c>
       <c r="F23" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -3043,7 +3057,9 @@
         <v>3000</v>
       </c>
       <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
+      <c r="K23" s="4">
+        <v>3000</v>
+      </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -3205,7 +3221,7 @@
       </c>
       <c r="F26" s="1">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -3215,8 +3231,12 @@
       <c r="J26" s="4">
         <v>1000</v>
       </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
+      <c r="K26" s="11">
+        <v>1000</v>
+      </c>
+      <c r="L26" s="11">
+        <v>1000</v>
+      </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -3429,14 +3449,16 @@
       </c>
       <c r="F30" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
+      <c r="L30" s="11">
+        <v>10000</v>
+      </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
@@ -3479,7 +3501,7 @@
       </c>
       <c r="F31" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="G31" s="4">
         <v>1000</v>
@@ -3487,8 +3509,12 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
+      <c r="K31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L31" s="4">
+        <v>500</v>
+      </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
@@ -3697,7 +3723,7 @@
       </c>
       <c r="F35" s="1">
         <f t="shared" ref="F35:F67" si="2">SUM(G35:AK35)</f>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="11">
@@ -3708,7 +3734,9 @@
         <v>3000</v>
       </c>
       <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
+      <c r="L35" s="11">
+        <v>3000</v>
+      </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
@@ -3964,13 +3992,15 @@
       </c>
       <c r="F40" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
+      <c r="K40" s="4">
+        <v>2000</v>
+      </c>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
@@ -4017,7 +4047,7 @@
       </c>
       <c r="F41" s="1">
         <f t="shared" si="2"/>
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4">
@@ -4027,7 +4057,9 @@
       <c r="J41" s="4">
         <v>3000</v>
       </c>
-      <c r="K41" s="4"/>
+      <c r="K41" s="4">
+        <v>3000</v>
+      </c>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
@@ -4226,7 +4258,7 @@
       </c>
       <c r="F45" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4">
@@ -4235,7 +4267,9 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
+      <c r="L45" s="4">
+        <v>3000</v>
+      </c>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
@@ -4278,7 +4312,7 @@
       </c>
       <c r="F46" s="1">
         <f t="shared" si="2"/>
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -4286,7 +4320,9 @@
       <c r="J46" s="4">
         <v>2100</v>
       </c>
-      <c r="K46" s="4"/>
+      <c r="K46" s="4">
+        <v>900</v>
+      </c>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
@@ -4333,14 +4369,16 @@
       </c>
       <c r="F47" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
+      <c r="L47" s="11">
+        <v>2000</v>
+      </c>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
@@ -4389,7 +4427,7 @@
       </c>
       <c r="F48" s="1">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="11">
@@ -4397,8 +4435,12 @@
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
+      <c r="K48" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L48" s="4">
+        <v>3000</v>
+      </c>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
@@ -4504,13 +4546,15 @@
       </c>
       <c r="F50" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
+      <c r="K50" s="4">
+        <v>2000</v>
+      </c>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
@@ -4607,7 +4651,7 @@
       </c>
       <c r="F52" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -4616,7 +4660,9 @@
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
+      <c r="L52" s="4">
+        <v>1000</v>
+      </c>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
@@ -4659,7 +4705,7 @@
       </c>
       <c r="F53" s="1">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G53" s="11">
         <v>2000</v>
@@ -4668,7 +4714,9 @@
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
+      <c r="L53" s="4">
+        <v>2000</v>
+      </c>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
@@ -5630,7 +5678,7 @@
       </c>
       <c r="F71" s="1">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -5639,7 +5687,9 @@
         <v>6000</v>
       </c>
       <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
+      <c r="L71" s="11">
+        <v>6000</v>
+      </c>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
@@ -5685,7 +5735,7 @@
       </c>
       <c r="F72" s="1">
         <f t="shared" si="3"/>
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="G72" s="4">
         <v>2000</v>
@@ -5696,7 +5746,9 @@
         <v>1500</v>
       </c>
       <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
+      <c r="L72" s="4">
+        <v>1500</v>
+      </c>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
@@ -6147,14 +6199,16 @@
       </c>
       <c r="F81" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
+      <c r="L81" s="11">
+        <v>1000</v>
+      </c>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
@@ -6389,6 +6443,9 @@
         <v>84</v>
       </c>
       <c r="C86" s="13"/>
+      <c r="D86" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E86" s="10" t="s">
         <v>146</v>
       </c>

--- a/Daily Collection/February-2021-Collection.xlsx
+++ b/Daily Collection/February-2021-Collection.xlsx
@@ -578,8 +578,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
@@ -600,6 +600,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -614,9 +630,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,11 +654,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -647,10 +686,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -669,27 +708,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -701,30 +731,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,13 +739,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,13 +788,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,163 +968,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,17 +982,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1012,11 +1032,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1053,38 +1079,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1102,130 +1102,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1614,11 +1614,11 @@
   <dimension ref="A1:AO110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G40" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1749,14 +1749,14 @@
       <c r="C2" s="7"/>
       <c r="D2" s="8">
         <f>SUM(F3:F121)</f>
-        <v>259700</v>
+        <v>356800</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="8">
         <f>SUM(G2:AK2)</f>
-        <v>259700</v>
+        <v>356800</v>
       </c>
       <c r="G2" s="2">
         <f>SUM(G3:G121)</f>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="N2" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>97100</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" si="0"/>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="G5" s="4">
         <v>2500</v>
@@ -2017,7 +2017,9 @@
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="N5" s="4">
+        <v>1000</v>
+      </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -2064,7 +2066,7 @@
       </c>
       <c r="F6" s="1">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="G6" s="11">
         <v>3000</v>
@@ -2077,7 +2079,9 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="N6" s="11">
+        <v>3000</v>
+      </c>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -2124,7 +2128,7 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" si="1"/>
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="11">
@@ -2137,7 +2141,9 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+      <c r="N7" s="11">
+        <v>8000</v>
+      </c>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -2463,7 +2469,7 @@
       </c>
       <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -2474,7 +2480,9 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
+      <c r="N13" s="4">
+        <v>5000</v>
+      </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -2521,7 +2529,7 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="G14" s="4">
         <v>4500</v>
@@ -2540,7 +2548,9 @@
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
+      <c r="N14" s="4">
+        <v>4000</v>
+      </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
@@ -2585,7 +2595,7 @@
       </c>
       <c r="F15" s="1">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G15" s="4">
         <v>2000</v>
@@ -2596,7 +2606,9 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
+      <c r="N15" s="4">
+        <v>2000</v>
+      </c>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
@@ -2703,7 +2715,7 @@
       </c>
       <c r="F17" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4">
@@ -2714,7 +2726,9 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
+      <c r="N17" s="4">
+        <v>1000</v>
+      </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
@@ -2989,7 +3003,7 @@
       </c>
       <c r="F22" s="1">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G22" s="4">
         <v>1000</v>
@@ -3002,7 +3016,9 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
+      <c r="N22" s="4">
+        <v>1000</v>
+      </c>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
@@ -3049,7 +3065,7 @@
       </c>
       <c r="F23" s="1">
         <f t="shared" si="1"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -3062,7 +3078,9 @@
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
+      <c r="N23" s="4">
+        <v>3000</v>
+      </c>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
@@ -3109,7 +3127,7 @@
       </c>
       <c r="F24" s="1">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G24" s="11">
         <v>5000</v>
@@ -3122,7 +3140,9 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
+      <c r="N24" s="11">
+        <v>5000</v>
+      </c>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
@@ -3394,7 +3414,7 @@
       </c>
       <c r="F29" s="1">
         <f t="shared" si="1"/>
-        <v>5500</v>
+        <v>10500</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4">
@@ -3405,7 +3425,9 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
+      <c r="N29" s="4">
+        <v>5000</v>
+      </c>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
@@ -3501,7 +3523,7 @@
       </c>
       <c r="F31" s="1">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="G31" s="4">
         <v>1000</v>
@@ -3516,7 +3538,9 @@
         <v>500</v>
       </c>
       <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
+      <c r="N31" s="4">
+        <v>1500</v>
+      </c>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
@@ -3560,7 +3584,7 @@
       </c>
       <c r="F32" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G32" s="4">
         <v>1000</v>
@@ -3575,7 +3599,9 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
+      <c r="N32" s="4">
+        <v>1000</v>
+      </c>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
@@ -3616,7 +3642,7 @@
       </c>
       <c r="F33" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -3627,7 +3653,9 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
+      <c r="N33" s="4">
+        <v>1000</v>
+      </c>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
@@ -3671,7 +3699,7 @@
       </c>
       <c r="F34" s="1">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -3682,7 +3710,9 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
+      <c r="N34" s="4">
+        <v>2500</v>
+      </c>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
@@ -3942,7 +3972,7 @@
       </c>
       <c r="F39" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -3951,7 +3981,9 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
+      <c r="N39" s="4">
+        <v>4000</v>
+      </c>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
@@ -4047,7 +4079,7 @@
       </c>
       <c r="F41" s="1">
         <f t="shared" si="2"/>
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4">
@@ -4062,7 +4094,9 @@
       </c>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
+      <c r="N41" s="4">
+        <v>3000</v>
+      </c>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
@@ -4203,7 +4237,7 @@
       </c>
       <c r="F44" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -4214,7 +4248,9 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
+      <c r="N44" s="11">
+        <v>3000</v>
+      </c>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
@@ -4312,7 +4348,7 @@
       </c>
       <c r="F46" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -4325,7 +4361,9 @@
       </c>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
+      <c r="N46" s="4">
+        <v>3000</v>
+      </c>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
@@ -4489,7 +4527,7 @@
       </c>
       <c r="F49" s="1">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -4502,7 +4540,9 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
+      <c r="N49" s="4">
+        <v>3000</v>
+      </c>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
@@ -4870,7 +4910,7 @@
       </c>
       <c r="F56" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -4879,7 +4919,9 @@
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
+      <c r="N56" s="11">
+        <v>15000</v>
+      </c>
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
@@ -4920,7 +4962,7 @@
       </c>
       <c r="F57" s="1">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4">
@@ -4931,7 +4973,9 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
+      <c r="N57" s="4">
+        <v>2000</v>
+      </c>
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
@@ -5036,7 +5080,7 @@
       </c>
       <c r="F59" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -5045,7 +5089,9 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
+      <c r="N59" s="11">
+        <v>5000</v>
+      </c>
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
@@ -5295,7 +5341,7 @@
       </c>
       <c r="F64" s="1">
         <f t="shared" si="2"/>
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="G64" s="4">
         <v>1500</v>
@@ -5306,7 +5352,9 @@
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
+      <c r="N64" s="4">
+        <v>2500</v>
+      </c>
       <c r="O64" s="4"/>
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
@@ -5399,7 +5447,7 @@
       </c>
       <c r="F66" s="1">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G66" s="4">
         <v>5000</v>
@@ -5412,7 +5460,9 @@
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
+      <c r="N66" s="4">
+        <v>5000</v>
+      </c>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
@@ -5561,7 +5611,7 @@
       </c>
       <c r="F69" s="1">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
@@ -5572,7 +5622,9 @@
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
+      <c r="N69" s="4">
+        <v>1000</v>
+      </c>
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
@@ -5619,7 +5671,7 @@
       </c>
       <c r="F70" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4">
@@ -5634,7 +5686,9 @@
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
+      <c r="N70" s="4">
+        <v>600</v>
+      </c>
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
@@ -5735,7 +5789,7 @@
       </c>
       <c r="F72" s="1">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="G72" s="4">
         <v>2000</v>
@@ -5750,7 +5804,9 @@
         <v>1500</v>
       </c>
       <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
+      <c r="N72" s="4">
+        <v>4000</v>
+      </c>
       <c r="O72" s="4"/>
       <c r="P72" s="4"/>
       <c r="Q72" s="4"/>
@@ -6950,7 +7006,7 @@
       </c>
       <c r="F96" s="1">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="11">
@@ -6961,7 +7017,9 @@
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
-      <c r="N96" s="4"/>
+      <c r="N96" s="11">
+        <v>2000</v>
+      </c>
       <c r="O96" s="4"/>
       <c r="P96" s="4"/>
       <c r="Q96" s="4"/>

--- a/Daily Collection/February-2021-Collection.xlsx
+++ b/Daily Collection/February-2021-Collection.xlsx
@@ -42,6 +42,29 @@
           <t xml:space="preserve">
 700-Cash
 500-Digital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+1000-Cash
+3000-Digital</t>
         </r>
       </text>
     </comment>
@@ -91,12 +114,34 @@
         </r>
       </text>
     </comment>
+    <comment ref="S80" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+240 New Sim collect</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="160">
   <si>
     <t>S.No.</t>
   </si>
@@ -500,9 +545,15 @@
     <t>Ajay Kr.</t>
   </si>
   <si>
+    <t>Arwal</t>
+  </si>
+  <si>
     <t>SANGAM ENTERPRISES(661591706)</t>
   </si>
   <si>
+    <t>Krishna Kr</t>
+  </si>
+  <si>
     <t>SHASHANK MOBILE(661969234)</t>
   </si>
   <si>
@@ -524,13 +575,13 @@
     <t>Khatri sudhir sahani</t>
   </si>
   <si>
-    <t>Arwal</t>
-  </si>
-  <si>
     <t>RAJ PHONE HIRDYACHAK(661712682)</t>
   </si>
   <si>
     <t>JANTA SEVA KENDRA(661752229)</t>
+  </si>
+  <si>
+    <t>MD Aslam</t>
   </si>
   <si>
     <t>MUSKAN COMMUNICATION(662077126)</t>
@@ -577,11 +628,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -624,6 +675,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -632,17 +690,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -670,6 +728,44 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -680,44 +776,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,13 +795,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
@@ -755,7 +806,7 @@
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -788,7 +839,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,13 +929,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,157 +1019,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,32 +1063,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1062,6 +1093,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1084,13 +1141,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1102,134 +1159,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1250,7 +1307,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1270,19 +1327,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1614,11 +1667,11 @@
   <dimension ref="A1:AO110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="N63" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J45" sqref="J45"/>
+      <selection pane="bottomRight" activeCell="S80" sqref="S80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1739,9 +1792,9 @@
       <c r="AH1" s="6">
         <v>44255</v>
       </c>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:34">
       <c r="A2" s="7"/>
@@ -1749,14 +1802,14 @@
       <c r="C2" s="7"/>
       <c r="D2" s="8">
         <f>SUM(F3:F121)</f>
-        <v>356800</v>
+        <v>596100</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="8">
         <f>SUM(G2:AK2)</f>
-        <v>356800</v>
+        <v>596100</v>
       </c>
       <c r="G2" s="2">
         <f>SUM(G3:G121)</f>
@@ -1792,23 +1845,23 @@
       </c>
       <c r="O2" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="P2" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>66500</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75500</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="S2" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>68300</v>
       </c>
       <c r="T2" s="2">
         <f t="shared" si="0"/>
@@ -1889,7 +1942,7 @@
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F34" si="1">SUM(G3:AK3)</f>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G3" s="11">
         <v>3000</v>
@@ -1902,7 +1955,9 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
+      <c r="P3" s="11">
+        <v>3000</v>
+      </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
@@ -1936,7 +1991,7 @@
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -2002,7 +2057,7 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="G5" s="4">
         <v>2500</v>
@@ -2021,7 +2076,9 @@
         <v>1000</v>
       </c>
       <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
+      <c r="P5" s="4">
+        <v>2000</v>
+      </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
@@ -2066,7 +2123,7 @@
       </c>
       <c r="F6" s="1">
         <f t="shared" si="1"/>
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="G6" s="11">
         <v>3000</v>
@@ -2083,10 +2140,14 @@
         <v>3000</v>
       </c>
       <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
+      <c r="P6" s="11">
+        <v>2000</v>
+      </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
+      <c r="S6" s="11">
+        <v>3000</v>
+      </c>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
@@ -2128,7 +2189,7 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" si="1"/>
-        <v>16000</v>
+        <v>27000</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="11">
@@ -2147,8 +2208,12 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
+      <c r="R7" s="11">
+        <v>7000</v>
+      </c>
+      <c r="S7" s="11">
+        <v>4000</v>
+      </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
@@ -2242,7 +2307,7 @@
       </c>
       <c r="F9" s="1">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G9" s="4">
         <v>2000</v>
@@ -2255,7 +2320,9 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
+      <c r="P9" s="4">
+        <v>2000</v>
+      </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
@@ -2297,7 +2364,7 @@
       </c>
       <c r="F10" s="1">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G10" s="4">
         <v>5000</v>
@@ -2312,10 +2379,14 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
+      <c r="P10" s="4">
+        <v>2500</v>
+      </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
+      <c r="S10" s="4">
+        <v>2500</v>
+      </c>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
@@ -2410,7 +2481,7 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4">
@@ -2427,7 +2498,9 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
+      <c r="P12" s="4">
+        <v>1000</v>
+      </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
@@ -2469,7 +2542,7 @@
       </c>
       <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -2487,7 +2560,9 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
+      <c r="S13" s="4">
+        <v>5000</v>
+      </c>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
@@ -2529,7 +2604,7 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
-        <v>16500</v>
+        <v>25500</v>
       </c>
       <c r="G14" s="4">
         <v>4500</v>
@@ -2552,10 +2627,16 @@
         <v>4000</v>
       </c>
       <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
+      <c r="P14" s="4">
+        <v>3500</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>1500</v>
+      </c>
       <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
+      <c r="S14" s="4">
+        <v>4000</v>
+      </c>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
@@ -2595,7 +2676,7 @@
       </c>
       <c r="F15" s="1">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G15" s="4">
         <v>2000</v>
@@ -2610,7 +2691,9 @@
         <v>2000</v>
       </c>
       <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
+      <c r="P15" s="4">
+        <v>2000</v>
+      </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
@@ -2715,7 +2798,7 @@
       </c>
       <c r="F17" s="1">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4">
@@ -2730,7 +2813,9 @@
         <v>1000</v>
       </c>
       <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
+      <c r="P17" s="4">
+        <v>2000</v>
+      </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
@@ -2775,7 +2860,7 @@
       </c>
       <c r="F18" s="1">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -2791,7 +2876,9 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
+      <c r="Q18" s="4">
+        <v>5000</v>
+      </c>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
@@ -2835,7 +2922,7 @@
       </c>
       <c r="F19" s="1">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -2849,7 +2936,9 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
+      <c r="Q19" s="11">
+        <v>4000</v>
+      </c>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
@@ -2890,7 +2979,7 @@
       </c>
       <c r="F20" s="1">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4">
@@ -2904,7 +2993,9 @@
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
+      <c r="O20" s="4">
+        <v>1000</v>
+      </c>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
@@ -2950,7 +3041,7 @@
       </c>
       <c r="F21" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -2960,9 +3051,13 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
+      <c r="O21" s="11">
+        <v>5000</v>
+      </c>
       <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
+      <c r="Q21" s="11">
+        <v>10000</v>
+      </c>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
@@ -3003,7 +3098,7 @@
       </c>
       <c r="F22" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G22" s="4">
         <v>1000</v>
@@ -3021,8 +3116,12 @@
       </c>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
+      <c r="Q22" s="4">
+        <v>1000</v>
+      </c>
+      <c r="R22" s="4">
+        <v>1000</v>
+      </c>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
@@ -3065,7 +3164,7 @@
       </c>
       <c r="F23" s="1">
         <f t="shared" si="1"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -3085,7 +3184,9 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
+      <c r="S23" s="4">
+        <v>3000</v>
+      </c>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
@@ -3127,7 +3228,7 @@
       </c>
       <c r="F24" s="1">
         <f t="shared" si="1"/>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G24" s="11">
         <v>5000</v>
@@ -3146,7 +3247,9 @@
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
+      <c r="R24" s="11">
+        <v>5000</v>
+      </c>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
@@ -3241,7 +3344,7 @@
       </c>
       <c r="F26" s="1">
         <f t="shared" si="1"/>
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -3260,10 +3363,18 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
+      <c r="P26" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>1000</v>
+      </c>
+      <c r="R26" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S26" s="4">
+        <v>1000</v>
+      </c>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
@@ -3302,7 +3413,7 @@
       </c>
       <c r="F27" s="1">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -3317,7 +3428,9 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
+      <c r="R27" s="4">
+        <v>2000</v>
+      </c>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
@@ -3357,7 +3470,7 @@
       </c>
       <c r="F28" s="1">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G28" s="4">
         <v>1000</v>
@@ -3374,7 +3487,9 @@
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
+      <c r="R28" s="4">
+        <v>2000</v>
+      </c>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
@@ -3414,7 +3529,7 @@
       </c>
       <c r="F29" s="1">
         <f t="shared" si="1"/>
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4">
@@ -3432,7 +3547,9 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
+      <c r="S29" s="11">
+        <v>5500</v>
+      </c>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
@@ -3471,7 +3588,7 @@
       </c>
       <c r="F30" s="1">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -3485,7 +3602,9 @@
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
+      <c r="Q30" s="11">
+        <v>10000</v>
+      </c>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
@@ -3523,7 +3642,7 @@
       </c>
       <c r="F31" s="1">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="G31" s="4">
         <v>1000</v>
@@ -3541,10 +3660,16 @@
       <c r="N31" s="4">
         <v>1500</v>
       </c>
-      <c r="O31" s="4"/>
+      <c r="O31" s="4">
+        <v>1000</v>
+      </c>
       <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
+      <c r="Q31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="R31" s="4">
+        <v>1000</v>
+      </c>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
@@ -3584,7 +3709,7 @@
       </c>
       <c r="F32" s="1">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G32" s="4">
         <v>1000</v>
@@ -3603,7 +3728,9 @@
         <v>1000</v>
       </c>
       <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
+      <c r="P32" s="4">
+        <v>1000</v>
+      </c>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
@@ -3642,7 +3769,7 @@
       </c>
       <c r="F33" s="1">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -3658,7 +3785,9 @@
       </c>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
+      <c r="Q33" s="4">
+        <v>2000</v>
+      </c>
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
@@ -3753,7 +3882,7 @@
       </c>
       <c r="F35" s="1">
         <f t="shared" ref="F35:F67" si="2">SUM(G35:AK35)</f>
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="11">
@@ -3770,10 +3899,14 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
+      <c r="P35" s="11">
+        <v>3000</v>
+      </c>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
+      <c r="S35" s="11">
+        <v>3000</v>
+      </c>
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
@@ -3809,7 +3942,7 @@
       </c>
       <c r="F36" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -3820,7 +3953,9 @@
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
+      <c r="P36" s="4">
+        <v>1000</v>
+      </c>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
@@ -3862,7 +3997,7 @@
       </c>
       <c r="F37" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -3875,7 +4010,9 @@
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
+      <c r="P37" s="11">
+        <v>3000</v>
+      </c>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
@@ -3909,7 +4046,7 @@
       <c r="B38" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -4079,7 +4216,7 @@
       </c>
       <c r="F41" s="1">
         <f t="shared" si="2"/>
-        <v>10500</v>
+        <v>16500</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4">
@@ -4098,8 +4235,12 @@
         <v>3000</v>
       </c>
       <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
+      <c r="P41" s="4">
+        <v>3000</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>3000</v>
+      </c>
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
@@ -4137,7 +4278,7 @@
       </c>
       <c r="F42" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -4148,7 +4289,9 @@
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
+      <c r="P42" s="4">
+        <v>2000</v>
+      </c>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
@@ -4237,7 +4380,7 @@
       </c>
       <c r="F44" s="1">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -4253,7 +4396,9 @@
       </c>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
+      <c r="Q44" s="11">
+        <v>3000</v>
+      </c>
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
@@ -4294,7 +4439,7 @@
       </c>
       <c r="F45" s="1">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4">
@@ -4309,7 +4454,9 @@
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
+      <c r="P45" s="4">
+        <v>6000</v>
+      </c>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
@@ -4348,7 +4495,7 @@
       </c>
       <c r="F46" s="1">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -4368,7 +4515,9 @@
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
+      <c r="S46" s="4">
+        <v>3000</v>
+      </c>
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
@@ -4465,7 +4614,7 @@
       </c>
       <c r="F48" s="1">
         <f t="shared" si="2"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="11">
@@ -4482,7 +4631,9 @@
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
+      <c r="P48" s="4">
+        <v>3000</v>
+      </c>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
@@ -4527,7 +4678,7 @@
       </c>
       <c r="F49" s="1">
         <f t="shared" si="2"/>
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -4547,7 +4698,9 @@
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
+      <c r="S49" s="11">
+        <v>6000</v>
+      </c>
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
@@ -4586,7 +4739,7 @@
       </c>
       <c r="F50" s="1">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -4599,7 +4752,9 @@
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
+      <c r="P50" s="4">
+        <v>2000</v>
+      </c>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
@@ -4691,7 +4846,7 @@
       </c>
       <c r="F52" s="1">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -4705,8 +4860,12 @@
       </c>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
+      <c r="O52" s="11">
+        <v>2000</v>
+      </c>
+      <c r="P52" s="11">
+        <v>2000</v>
+      </c>
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
@@ -4745,7 +4904,7 @@
       </c>
       <c r="F53" s="1">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G53" s="11">
         <v>2000</v>
@@ -4760,7 +4919,9 @@
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
+      <c r="P53" s="4">
+        <v>1000</v>
+      </c>
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
@@ -4855,7 +5016,7 @@
       </c>
       <c r="F55" s="1">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4">
@@ -4871,7 +5032,9 @@
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
-      <c r="S55" s="4"/>
+      <c r="S55" s="4">
+        <v>4000</v>
+      </c>
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
       <c r="V55" s="4"/>
@@ -4962,7 +5125,7 @@
       </c>
       <c r="F57" s="1">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4">
@@ -4980,7 +5143,9 @@
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
+      <c r="S57" s="4">
+        <v>2000</v>
+      </c>
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
       <c r="V57" s="4"/>
@@ -5022,7 +5187,7 @@
       </c>
       <c r="F58" s="1">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="G58" s="4">
         <v>5000</v>
@@ -5036,7 +5201,9 @@
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
+      <c r="Q58" s="11">
+        <v>10000</v>
+      </c>
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
       <c r="T58" s="4"/>
@@ -5069,7 +5236,7 @@
       <c r="B59" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D59" s="3" t="s">
@@ -5135,7 +5302,7 @@
       </c>
       <c r="F60" s="1">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="G60" s="11">
         <v>2000</v>
@@ -5149,7 +5316,9 @@
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
+      <c r="Q60" s="11">
+        <v>6000</v>
+      </c>
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
       <c r="T60" s="4"/>
@@ -5187,7 +5356,7 @@
       </c>
       <c r="F61" s="1">
         <f t="shared" si="2"/>
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4">
@@ -5203,7 +5372,9 @@
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
-      <c r="S61" s="4"/>
+      <c r="S61" s="4">
+        <v>2000</v>
+      </c>
       <c r="T61" s="4"/>
       <c r="U61" s="4"/>
       <c r="V61" s="4"/>
@@ -5395,7 +5566,7 @@
       </c>
       <c r="F65" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -5409,7 +5580,9 @@
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
-      <c r="Q65" s="4"/>
+      <c r="Q65" s="4">
+        <v>1000</v>
+      </c>
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
@@ -5447,7 +5620,7 @@
       </c>
       <c r="F66" s="1">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G66" s="4">
         <v>5000</v>
@@ -5465,7 +5638,9 @@
       </c>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
+      <c r="Q66" s="4">
+        <v>5000</v>
+      </c>
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
       <c r="T66" s="4"/>
@@ -5503,7 +5678,7 @@
       </c>
       <c r="F67" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
@@ -5516,7 +5691,9 @@
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
-      <c r="P67" s="4"/>
+      <c r="P67" s="4">
+        <v>3000</v>
+      </c>
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
@@ -5561,7 +5738,7 @@
       </c>
       <c r="F68" s="1">
         <f t="shared" ref="F68:F96" si="3">SUM(G68:AK68)</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
@@ -5572,10 +5749,14 @@
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
-      <c r="P68" s="4"/>
+      <c r="P68" s="11">
+        <v>2000</v>
+      </c>
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
-      <c r="S68" s="4"/>
+      <c r="S68" s="11">
+        <v>2000</v>
+      </c>
       <c r="T68" s="4"/>
       <c r="U68" s="4"/>
       <c r="V68" s="4"/>
@@ -5671,7 +5852,7 @@
       </c>
       <c r="F70" s="1">
         <f t="shared" si="3"/>
-        <v>3600</v>
+        <v>7000</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4">
@@ -5690,10 +5871,14 @@
         <v>600</v>
       </c>
       <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
+      <c r="P70" s="11">
+        <v>1500</v>
+      </c>
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
-      <c r="S70" s="4"/>
+      <c r="S70" s="11">
+        <v>1900</v>
+      </c>
       <c r="T70" s="4"/>
       <c r="U70" s="4"/>
       <c r="V70" s="4"/>
@@ -5732,7 +5917,7 @@
       </c>
       <c r="F71" s="1">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -5747,10 +5932,14 @@
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
-      <c r="P71" s="4"/>
+      <c r="P71" s="4">
+        <v>6000</v>
+      </c>
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
-      <c r="S71" s="4"/>
+      <c r="S71" s="4">
+        <v>3000</v>
+      </c>
       <c r="T71" s="4"/>
       <c r="U71" s="4"/>
       <c r="V71" s="4"/>
@@ -5889,7 +6078,7 @@
       <c r="B74" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C74" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D74" s="3" t="s">
@@ -5900,7 +6089,7 @@
       </c>
       <c r="F74" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
@@ -5914,7 +6103,9 @@
       <c r="P74" s="4"/>
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
-      <c r="S74" s="4"/>
+      <c r="S74" s="11">
+        <v>4000</v>
+      </c>
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
       <c r="V74" s="4"/>
@@ -6092,8 +6283,11 @@
       <c r="C78" s="3">
         <v>7004210181</v>
       </c>
+      <c r="D78" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="E78" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" si="3"/>
@@ -6141,15 +6335,18 @@
       <c r="A79" s="3">
         <v>77</v>
       </c>
+      <c r="B79" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="D79" s="3" t="s">
         <v>75</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F79" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
@@ -6163,7 +6360,9 @@
       <c r="P79" s="4"/>
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
-      <c r="S79" s="4"/>
+      <c r="S79" s="11">
+        <v>2000</v>
+      </c>
       <c r="T79" s="4"/>
       <c r="U79" s="4"/>
       <c r="V79" s="4"/>
@@ -6198,11 +6397,11 @@
         <v>97</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F80" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
@@ -6216,7 +6415,9 @@
       <c r="P80" s="4"/>
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
-      <c r="S80" s="4"/>
+      <c r="S80" s="14">
+        <v>2400</v>
+      </c>
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
       <c r="V80" s="4"/>
@@ -6245,13 +6446,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>75</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F81" s="1">
         <f t="shared" si="3"/>
@@ -6300,14 +6501,14 @@
         <v>80</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F82" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
@@ -6319,7 +6520,9 @@
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
       <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
+      <c r="Q82" s="11">
+        <v>2000</v>
+      </c>
       <c r="R82" s="4"/>
       <c r="S82" s="4"/>
       <c r="T82" s="4"/>
@@ -6350,17 +6553,17 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F83" s="1">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
@@ -6374,7 +6577,9 @@
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
-      <c r="Q83" s="4"/>
+      <c r="Q83" s="11">
+        <v>10000</v>
+      </c>
       <c r="R83" s="4"/>
       <c r="S83" s="4"/>
       <c r="T83" s="4"/>
@@ -6405,7 +6610,7 @@
         <v>82</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F84" s="1">
         <f t="shared" si="3"/>
@@ -6451,12 +6656,15 @@
       <c r="A85" s="3">
         <v>83</v>
       </c>
+      <c r="B85" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="E85" s="10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F85" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
@@ -6467,7 +6675,9 @@
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
-      <c r="P85" s="4"/>
+      <c r="P85" s="11">
+        <v>1000</v>
+      </c>
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
       <c r="S85" s="4"/>
@@ -6498,16 +6708,15 @@
       <c r="A86" s="3">
         <v>84</v>
       </c>
-      <c r="C86" s="13"/>
       <c r="D86" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F86" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
@@ -6520,7 +6729,9 @@
       <c r="O86" s="4"/>
       <c r="P86" s="4"/>
       <c r="Q86" s="4"/>
-      <c r="R86" s="4"/>
+      <c r="R86" s="4">
+        <v>1000</v>
+      </c>
       <c r="S86" s="4"/>
       <c r="T86" s="4"/>
       <c r="U86" s="4"/>
@@ -6550,7 +6761,7 @@
         <v>85</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F87" s="1">
         <f t="shared" si="3"/>
@@ -6600,7 +6811,7 @@
         <v>9015378357</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F88" s="1">
         <f t="shared" si="3"/>
@@ -6647,7 +6858,7 @@
         <v>87</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F89" s="1">
         <f t="shared" si="3"/>
@@ -6694,7 +6905,7 @@
         <v>88</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F90" s="1">
         <f t="shared" si="3"/>
@@ -6744,14 +6955,14 @@
         <v>9934079439</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F91" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
@@ -6762,7 +6973,9 @@
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
-      <c r="P91" s="4"/>
+      <c r="P91" s="4">
+        <v>5000</v>
+      </c>
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
       <c r="S91" s="4"/>
@@ -6797,11 +7010,11 @@
         <v>91</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F92" s="1">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4">
@@ -6817,7 +7030,9 @@
       <c r="P92" s="4"/>
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
-      <c r="S92" s="4"/>
+      <c r="S92" s="4">
+        <v>5000</v>
+      </c>
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
       <c r="V92" s="4"/>
@@ -6852,7 +7067,7 @@
         <v>107</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F93" s="1">
         <f t="shared" si="3"/>
@@ -6899,7 +7114,7 @@
         <v>92</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F94" s="1">
         <f t="shared" si="3"/>
@@ -6945,8 +7160,8 @@
       <c r="A95" s="3">
         <v>93</v>
       </c>
-      <c r="E95" s="15" t="s">
-        <v>155</v>
+      <c r="E95" s="13" t="s">
+        <v>157</v>
       </c>
       <c r="F95" s="1">
         <f t="shared" si="3"/>
@@ -6993,7 +7208,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C96" s="3">
         <v>7004399486</v>
@@ -7002,7 +7217,7 @@
         <v>103</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F96" s="1">
         <f t="shared" si="3"/>
